--- a/images/table_03.xlsx
+++ b/images/table_03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoxin\Desktop\bookdown\develop\book_test\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoxin\Desktop\Project\UCSC\bookdown\develop\UCSCXenaShiny_Book\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31137C46-1916-40DD-87EB-96514C800083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0497C757-81CF-45C7-A23A-D30134A1B762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>TCGA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vis_pancan_anatomy()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comparison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,60 +63,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCGA+GTEx: Molecular Profile Distribution (Tumor VS Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCGA: Molecule-Molecule Correlation</t>
-  </si>
-  <si>
-    <t>TCGA: Association Between Molecular Profile and Gene Mutation</t>
-  </si>
-  <si>
-    <t>TCGA: Association Between Molecular Profile and Immune Signature</t>
-  </si>
-  <si>
-    <t>TCGA: Association Between Molecular Profile and Tumor Immune Infiltration</t>
-  </si>
-  <si>
-    <t>TCGA: Association Between Molecular Profile and Pathway Score</t>
-  </si>
-  <si>
-    <t>TCGA: Molecular Profile Cox Analysis</t>
-  </si>
-  <si>
-    <t>TCGA: Molecular Profile Log-rank Analysis</t>
-  </si>
-  <si>
-    <t>TCGA: Dimension Reduction Distribution</t>
-  </si>
-  <si>
-    <t>TCGA: Association Between Molecular Profile and TMB/Stemness/MSI (Radar Show)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCAWG: Molecular Profile Distribution Across Cancer Types (Tumor VS Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCAWG: Molecule-Molecule Correlation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCAWG: Molecular Profile Log-rank Analysis</t>
-  </si>
-  <si>
-    <t>PCAWG: Molecular Profile Cox Analysis</t>
-  </si>
-  <si>
-    <t>CCLE: Molecular Profile Distribution Across Cancer Primary Sites</t>
-  </si>
-  <si>
-    <t>CCLE: Molecule-Molecule Correlation</t>
+    <t>Tumor VS Normal (Box plot)</t>
+  </si>
+  <si>
+    <t>Tumor VS Normal (Anatomy plot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation VS Wild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecule-Molecule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecule-Tumor Immune Infiltration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecule-Immune Signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecule-TMB/Stemness/MSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecule-Pathway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaplan-Meier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cox regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimension reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tumor VS Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancer Primary Sites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,7 +443,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -466,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -474,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -485,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -573,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -606,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,10 +634,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,10 +645,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
